--- a/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +934,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010852</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3276</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1383</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -580,112 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1063</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010853</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -750,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1850</t>
+          <t>0.2382</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -844,36 +682,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540002</t>
+          <t>100016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信龙腾混合</t>
+          <t>富国天源沪港深平衡混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>72.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2382</t>
+          <t>0.1850</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -887,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +736,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +776,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +814,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -950,14 +852,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.61</v>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -598,22 +615,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2382</t>
+          <t>0.2950</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -682,36 +699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1850</t>
+          <t>0.2382</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -720,6 +737,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688296-和达科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,26 +632,138 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2950</t>
+          <t>0.5224</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富安达先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国新国证新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015886</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -709,22 +838,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2382</t>
+          <t>0.2950</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -793,36 +922,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1850</t>
+          <t>0.2382</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -831,6 +960,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
